--- a/output/below_50/tRNA-Ser-AGA-4-1.xlsx
+++ b/output/below_50/tRNA-Ser-AGA-4-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>chr6</t>
   </si>
@@ -297,210 +297,6 @@
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>27521255</t>
-  </si>
-  <si>
-    <t>27521278</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>27521258</t>
-  </si>
-  <si>
-    <t>TGTCTGTAGTCGTGGCCGAG</t>
-  </si>
-  <si>
-    <t>96% (68)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 43, Doench 2016: 96%, Moreno-Mateos: 67%</t>
-  </si>
-  <si>
-    <t>3.54767E+11</t>
-  </si>
-  <si>
-    <t>27521390</t>
-  </si>
-  <si>
-    <t>27521413</t>
-  </si>
-  <si>
-    <t>27521410</t>
-  </si>
-  <si>
-    <t>AATTCAGAAACCAGCTCCCC</t>
-  </si>
-  <si>
-    <t>25% (41)</t>
-  </si>
-  <si>
-    <t>29% (35)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 40, Doench 2016: 25%, Moreno-Mateos: 29%</t>
-  </si>
-  <si>
-    <t>1.73538E+11</t>
-  </si>
-  <si>
-    <t>27521487</t>
-  </si>
-  <si>
-    <t>27521510</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>27521490</t>
-  </si>
-  <si>
-    <t>TTAAAACTAGGATTAAGGCC</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 39, Doench 2016: 84%, Moreno-Mateos: 41%</t>
-  </si>
-  <si>
-    <t>2.79957E+11</t>
-  </si>
-  <si>
-    <t>27521590</t>
-  </si>
-  <si>
-    <t>27521613</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>27521610</t>
-  </si>
-  <si>
-    <t>TGCTTAATGGATTTCAGAAA</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>27% (34)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 47, Doench 2016: 30%, Moreno-Mateos: 27%</t>
-  </si>
-  <si>
-    <t>46846876970</t>
-  </si>
-  <si>
-    <t>27521644</t>
-  </si>
-  <si>
-    <t>27521667</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>27521664</t>
-  </si>
-  <si>
-    <t>AAAACGATACAGAAAACCTC</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>8% (20)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 48, Doench 2016: 59%, Moreno-Mateos: 8%</t>
-  </si>
-  <si>
-    <t>1.06317E+11</t>
-  </si>
-  <si>
-    <t>27521710</t>
-  </si>
-  <si>
-    <t>27521733</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>27521730</t>
-  </si>
-  <si>
-    <t>AATATTTATCTCATTGTGTT</t>
-  </si>
-  <si>
-    <t>6% (27)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 32, Doench 2016: 6%, Moreno-Mateos: 12%</t>
-  </si>
-  <si>
-    <t>2.1778E+11</t>
-  </si>
-  <si>
-    <t>27521711</t>
-  </si>
-  <si>
-    <t>27521734</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>27521731</t>
-  </si>
-  <si>
-    <t>ATATTTATCTCATTGTGTTT</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>22% (31)</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 34, Doench 2016: 16%, Moreno-Mateos: 22%</t>
-  </si>
-  <si>
-    <t>23314936798</t>
   </si>
 </sst>
 </file>
@@ -545,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1141,419 +937,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11" t="s">
-        <v>104</v>
-      </c>
-      <c r="S11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" t="s">
-        <v>111</v>
-      </c>
-      <c r="P12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>94</v>
-      </c>
-      <c r="R12" t="s">
-        <v>112</v>
-      </c>
-      <c r="S12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" t="s">
-        <v>119</v>
-      </c>
-      <c r="O13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>121</v>
-      </c>
-      <c r="R13" t="s">
-        <v>122</v>
-      </c>
-      <c r="S13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>126</v>
-      </c>
-      <c r="N14" t="s">
-        <v>129</v>
-      </c>
-      <c r="O14" t="s">
-        <v>130</v>
-      </c>
-      <c r="P14" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>132</v>
-      </c>
-      <c r="R14" t="s">
-        <v>133</v>
-      </c>
-      <c r="S14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>137</v>
-      </c>
-      <c r="N15" t="s">
-        <v>140</v>
-      </c>
-      <c r="O15" t="s">
-        <v>141</v>
-      </c>
-      <c r="P15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>66</v>
-      </c>
-      <c r="R15" t="s">
-        <v>143</v>
-      </c>
-      <c r="S15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" t="s">
-        <v>147</v>
-      </c>
-      <c r="N16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>155</v>
-      </c>
-      <c r="N17" t="s">
-        <v>158</v>
-      </c>
-      <c r="O17" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>132</v>
-      </c>
-      <c r="R17" t="s">
-        <v>161</v>
-      </c>
-      <c r="S17" t="s">
-        <v>162</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
